--- a/control.xlsx
+++ b/control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adelineclarissa/Desktop/Indopartner/llm-summarization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C557616D-F647-834A-B718-A56ABEC9D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD338B92-74F7-BC43-B329-91CACDA3E80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9190,6 +9190,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -9218,20 +9232,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9246,7 +9246,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDF92AAD-B338-BF4D-A8AE-5070AA556F09}" name="Table1" displayName="Table1" ref="A1:I1001" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDF92AAD-B338-BF4D-A8AE-5070AA556F09}" name="Table1" displayName="Table1" ref="A1:I1001" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:I1001" xr:uid="{EDF92AAD-B338-BF4D-A8AE-5070AA556F09}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1001">
     <sortCondition ref="A1:A1001"/>
